--- a/report/No2_KJBM020_テスト結果.xlsx
+++ b/report/No2_KJBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BDDA3-0666-4A95-9C6A-E84601C960DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194D074-5D36-4771-B7D0-638E0C7157C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>前提</t>
     <rPh sb="0" eb="2">
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>./KJBM020で実行する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■テストデータ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -346,17 +342,7 @@
     <t>*** KJBM020 START ***</t>
   </si>
   <si>
-    <t>OTF-FILEオープンに失敗しました</t>
-  </si>
-  <si>
     <t>とコンソールに表示される</t>
-  </si>
-  <si>
-    <t>25.読み込み権限がないアウトプットファイルをOTF環境変数に指定して./KJBM020 | iconv -fcp932で実行する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITF-FILEオープンに失敗しました</t>
   </si>
   <si>
     <t>*** KJBM020 ABEND   37</t>
@@ -416,6 +402,32 @@
   </si>
   <si>
     <t>インプットファイルの13レコード目のデータが転記される部分のエラー区分5の値が“1”になる</t>
+  </si>
+  <si>
+    <t>■ケース3～21のテストデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ケース2のテストデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITF-FILEオープンに失敗しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTF-FILEオープンに失敗しました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.書き込み権限がないアウトプットファイルをOTF環境変数に指定して./KJBM020 | iconv -fcp932で実行する</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -485,23 +497,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>467556</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133464</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>172398</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1471E1E-81DC-47AF-8ADC-9F6F39EDA201}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E5FD3A-EC5D-4F14-A7E9-3DCA0997A18A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,6 +535,111 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="8239125" y="504825"/>
+          <a:ext cx="6792273" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>172395</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DEF64A-C448-41A9-9E44-8D1919A2CDB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="2066925"/>
+          <a:ext cx="6773220" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>467556</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1471E1E-81DC-47AF-8ADC-9F6F39EDA201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="685800" y="1028700"/>
           <a:ext cx="5953956" cy="819264"/>
         </a:xfrm>
@@ -697,7 +814,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -910,25 +1027,2400 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>601020</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114364</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A335425-5F40-472D-AAFE-3894EF2F9D56}"/>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094E4ABB-4BAF-4D62-A7DF-AFB252C94D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="53083558"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F65778-DE4C-4A3A-8FA2-08C6FE84920E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="49713173"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AED31-AAFF-46C7-9E60-9EE05B26CEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="46342788"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78D1058-8D97-4E6F-B6FA-628D7DD4BC2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="42972404"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FC4D15-C55A-4122-B99A-FD8601F9ADDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="39939058"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2389CC7-C079-40C0-B4E2-4FEA3EB3A899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="36568673"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03D5D30-610B-4868-B096-3FC7CC0DE95A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="33198288"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6A5902-224C-444A-A33B-9D9EC3B7D0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="29827904"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA345F1-17BE-46D1-8AFE-1D52326A40BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="26457519"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B85230-39D4-4188-976C-CA6EFC041867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="23087135"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A220478F-E661-4D33-9BD1-D577CED19B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="19716750"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B489EC-478E-4D2C-BA99-C020D915C216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="16346365"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00190BF0-2BDA-46FE-BD82-963575B01939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="12975981"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E100A83-618F-4DB3-933F-36FEC578FF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="9605596"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8F4119-2CA5-48E9-8423-5D5118388F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="6235212"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06BAF69-536E-4CCA-B049-A44780FEA408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="2864827"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D19151-7BFB-402B-BA80-D9ED30E260D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1371600"/>
+          <a:ext cx="5868219" cy="914528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532FFAC3-7E17-4D6C-B007-079808539472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="1685925"/>
+          <a:ext cx="2066925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98A540B-33C9-4E11-8E58-494F5C360AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2769577" y="3116873"/>
+          <a:ext cx="4396" cy="290146"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681404</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2878A8C7-12F2-4E82-9FF0-249E34B7C7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2747596" y="6623539"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681404</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A36EAE-EB59-4224-B1D5-1B2DD4404CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2747596" y="10133134"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63012</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BF179-0CEB-4FA9-92C0-38E6905F31F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2813539" y="13628077"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>109905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63012</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>58617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012CD5A8-4B89-4959-A13C-330B5C669D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2813539" y="17130347"/>
+          <a:ext cx="4396" cy="285751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65943</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>80598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>70339</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735DA061-8D37-48DB-9401-071CB00B0053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2820866" y="20639944"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124560</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>36636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128956</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC8AC62-BF8F-408D-A946-156CC5A5A95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2879483" y="24134886"/>
+          <a:ext cx="4396" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>124559</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128955</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25EDBB3-AC68-454D-95FD-AECEBBC87A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2879482" y="27644482"/>
+          <a:ext cx="4396" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131886</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>131886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136282</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>80597</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B0FC1-C92F-40D2-AD76-61112FC0A56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2886809" y="31139424"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194897</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0739A983-E619-433E-851A-184E6F0B443A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2945424" y="34634366"/>
+          <a:ext cx="4396" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>65945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194897</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC84E97-426D-451A-9BB9-06A7882D3FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2945424" y="38151291"/>
+          <a:ext cx="4396" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249117</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>253513</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDA121B-1C97-4EA8-BABF-9B32785E738C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3004040" y="41638905"/>
+          <a:ext cx="4396" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263770</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268166</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F8E5AB-E005-406F-BB5B-734B8A44A240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3018693" y="44826117"/>
+          <a:ext cx="4396" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263770</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268166</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53016E6F-69AE-4879-8CB7-20AE11A15068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3018693" y="48321060"/>
+          <a:ext cx="4396" cy="285747"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329713</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>73273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334109</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>21982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915A938A-5099-42C8-9D92-AC09C509613A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3084636" y="51808677"/>
+          <a:ext cx="4396" cy="285747"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329713</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>58617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334109</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87E5AC2-C961-4704-914B-164B162E09AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3084636" y="55332925"/>
+          <a:ext cx="4396" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574643</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>158636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13E1BE8-1382-4862-BF73-A4AFBE3F5E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="56453942"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>322385</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326781</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>139209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C04128A-F440-48F4-96C3-8DF204BE241B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3077308" y="58835192"/>
+          <a:ext cx="4396" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6773220" cy="2686425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA8C037-ADF9-47D6-94F2-FC1D3CF9E67D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="56453942"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>337039</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>341435</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>124555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608D771-6A38-4823-866A-99E0B07EC0CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3091962" y="62359442"/>
+          <a:ext cx="4396" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6773220" cy="2686425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC848BA-8D56-4DCA-A5A8-80A2C035A6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688731" y="59824327"/>
+          <a:ext cx="6773220" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315059</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319455</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F25891-B535-45C9-8B6E-8F1321CF0CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3069982" y="65532001"/>
+          <a:ext cx="4396" cy="285747"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDC76DC-288D-4EEA-9A68-30A7BF4C5818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3086100"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362766</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7506191-4B4C-4A66-BB0E-D5253B6A5E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9429750"/>
+          <a:ext cx="5849166" cy="1238423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362766</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADA31F3-DDFD-4229-B5DE-6300064708B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7543800"/>
+          <a:ext cx="5849166" cy="1238423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296082</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF15888-B720-4044-87CC-05394D6E43EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12353925"/>
+          <a:ext cx="5782482" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296082</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785D49C9-E7E2-4604-B49E-7D241005D5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10629900"/>
+          <a:ext cx="5782482" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362766</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3070A13C-E3E3-4C2A-9587-905D9B968953}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,8 +3442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="857250"/>
-          <a:ext cx="6773220" cy="457264"/>
+          <a:off x="685800" y="3257550"/>
+          <a:ext cx="5849166" cy="771633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,30 +3452,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>335</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362766</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094E4ABB-4BAF-4D62-A7DF-AFB252C94D82}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7E8BFE-D813-448C-A884-589EEC6A6796}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,7 +3479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1005,8 +3492,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688731" y="53083558"/>
-          <a:ext cx="6773220" cy="2686425"/>
+          <a:off x="685800" y="2228850"/>
+          <a:ext cx="5849166" cy="771633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,825 +3502,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>315</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="図 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F65778-DE4C-4A3A-8FA2-08C6FE84920E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="49713173"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2AED31-AAFF-46C7-9E60-9EE05B26CEE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="46342788"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="図 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78D1058-8D97-4E6F-B6FA-628D7DD4BC2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="42972404"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FC4D15-C55A-4122-B99A-FD8601F9ADDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="39939058"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2389CC7-C079-40C0-B4E2-4FEA3EB3A899}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="36568673"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F03D5D30-610B-4868-B096-3FC7CC0DE95A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="33198288"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6A5902-224C-444A-A33B-9D9EC3B7D0D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="29827904"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA345F1-17BE-46D1-8AFE-1D52326A40BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="26457519"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B85230-39D4-4188-976C-CA6EFC041867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="23087135"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A220478F-E661-4D33-9BD1-D577CED19B4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="19716750"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B489EC-478E-4D2C-BA99-C020D915C216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="16346365"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00190BF0-2BDA-46FE-BD82-963575B01939}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="12975981"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E100A83-618F-4DB3-933F-36FEC578FF08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="9605596"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8F4119-2CA5-48E9-8423-5D5118388F36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="6235212"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158637</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06BAF69-536E-4CCA-B049-A44780FEA408}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="2864827"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381819</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57278</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D19151-7BFB-402B-BA80-D9ED30E260D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="1371600"/>
-          <a:ext cx="5868219" cy="914528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直線コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532FFAC3-7E17-4D6C-B007-079808539472}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4504C0-3740-4AD1-8A85-8B51FF555A76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +3528,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="1685925"/>
+          <a:off x="4448175" y="2381250"/>
           <a:ext cx="2066925" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1870,25 +3557,20 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>629598</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>143255</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5849166" cy="771633"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435476DC-23B9-4527-AFF8-4A675F035956}"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67132121-3255-4898-9BB0-68C3553DA2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,1521 +3580,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8239125" y="504825"/>
-          <a:ext cx="6792273" cy="2724530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98A540B-33C9-4E11-8E58-494F5C360AE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2769577" y="3116873"/>
-          <a:ext cx="4396" cy="290146"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>681404</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>51289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2878A8C7-12F2-4E82-9FF0-249E34B7C7B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2747596" y="6623539"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>681404</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>139211</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A36EAE-EB59-4224-B1D5-1B2DD4404CE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2747596" y="10133134"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63012</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9BF179-0CEB-4FA9-92C0-38E6905F31F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2813539" y="13628077"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>109905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63012</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>58617</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012CD5A8-4B89-4959-A13C-330B5C669D73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2813539" y="17130347"/>
-          <a:ext cx="4396" cy="285751"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65943</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>80598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>70339</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>29309</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735DA061-8D37-48DB-9401-071CB00B0053}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2820866" y="20639944"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>36636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>128956</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>153866</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC8AC62-BF8F-408D-A946-156CC5A5A95C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2879483" y="24134886"/>
-          <a:ext cx="4396" cy="285749"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>124559</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>7328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>128955</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25EDBB3-AC68-454D-95FD-AECEBBC87A7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2879482" y="27644482"/>
-          <a:ext cx="4396" cy="285749"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>131886</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>131886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136282</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2B0FC1-C92F-40D2-AD76-61112FC0A56A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2886809" y="31139424"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>87924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>194897</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0739A983-E619-433E-851A-184E6F0B443A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2945424" y="34634366"/>
-          <a:ext cx="4396" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>65945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>194897</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>14655</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC84E97-426D-451A-9BB9-06A7882D3FF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2945424" y="38151291"/>
-          <a:ext cx="4396" cy="285749"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>249117</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>14655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>253513</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDA121B-1C97-4EA8-BABF-9B32785E738C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3004040" y="41638905"/>
-          <a:ext cx="4396" cy="285748"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263770</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>268166</xdr:colOff>
-      <xdr:row>272</xdr:row>
-      <xdr:rowOff>117230</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F8E5AB-E005-406F-BB5B-734B8A44A240}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3018693" y="44826117"/>
-          <a:ext cx="4396" cy="285748"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263770</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>268166</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53016E6F-69AE-4879-8CB7-20AE11A15068}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3018693" y="48321060"/>
-          <a:ext cx="4396" cy="285747"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>329713</xdr:colOff>
-      <xdr:row>312</xdr:row>
-      <xdr:rowOff>73273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>334109</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>21982</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915A938A-5099-42C8-9D92-AC09C509613A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3084636" y="51808677"/>
-          <a:ext cx="4396" cy="285747"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>329713</xdr:colOff>
-      <xdr:row>333</xdr:row>
-      <xdr:rowOff>58617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>334109</xdr:colOff>
-      <xdr:row>335</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87E5AC2-C961-4704-914B-164B162E09AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3084636" y="55332925"/>
-          <a:ext cx="4396" cy="285748"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>340</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574643</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>158636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13E1BE8-1382-4862-BF73-A4AFBE3F5E99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="56453942"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>326781</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>139209</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C04128A-F440-48F4-96C3-8DF204BE241B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3077308" y="58835192"/>
-          <a:ext cx="4396" cy="285748"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6773220" cy="2686425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="図 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA8C037-ADF9-47D6-94F2-FC1D3CF9E67D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="56453942"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>337039</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>341435</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>124555</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608D771-6A38-4823-866A-99E0B07EC0CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3091962" y="62359442"/>
-          <a:ext cx="4396" cy="285748"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>378</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6773220" cy="2686425"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC848BA-8D56-4DCA-A5A8-80A2C035A6E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688731" y="59824327"/>
-          <a:ext cx="6773220" cy="2686425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>315059</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>319455</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F25891-B535-45C9-8B6E-8F1321CF0CB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3069982" y="65532001"/>
-          <a:ext cx="4396" cy="285747"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDC76DC-288D-4EEA-9A68-30A7BF4C5818}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="3086100"/>
-          <a:ext cx="0" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>334187</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6FAA33-774D-4120-99CC-88A6147DA993}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="7715250"/>
-          <a:ext cx="5820587" cy="609685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>362766</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3070A13C-E3E3-4C2A-9587-905D9B968953}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="3257550"/>
-          <a:ext cx="5849166" cy="771633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>362766</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7E8BFE-D813-448C-A884-589EEC6A6796}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2228850"/>
-          <a:ext cx="5849166" cy="771633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4504C0-3740-4AD1-8A85-8B51FF555A76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4448175" y="2381250"/>
-          <a:ext cx="2066925" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5849166" cy="771633"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67132121-3255-4898-9BB0-68C3553DA2C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3669,63 +3836,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5820587" cy="628738"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44002F3A-FB8A-43DD-A005-32DCA7436419}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="7715250"/>
-          <a:ext cx="5820587" cy="628738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3740,7 +3862,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="10972800"/>
+          <a:off x="4467225" y="11239500"/>
           <a:ext cx="2066925" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3773,14 +3895,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3795,7 +3917,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="8401050"/>
+          <a:off x="2057400" y="11811000"/>
           <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3825,63 +3947,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5820587" cy="628738"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE05474-4A87-4715-803D-9C07BA16A130}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="8915400"/>
-          <a:ext cx="5820587" cy="628738"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3896,8 +3973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="9048750"/>
-          <a:ext cx="2343150" cy="504825"/>
+          <a:off x="657224" y="12915900"/>
+          <a:ext cx="2333625" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3942,14 +4019,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3964,7 +4041,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="8229600"/>
+          <a:off x="2057400" y="8896350"/>
           <a:ext cx="0" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3994,68 +4071,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>334187</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>95335</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7617B656-7113-4C65-8409-AF95664C959B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="8743950"/>
-          <a:ext cx="5820587" cy="609685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4070,7 +4097,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="7886700"/>
+          <a:off x="4505325" y="8324850"/>
           <a:ext cx="2066925" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4101,16 +4128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4125,7 +4152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="8867775"/>
+          <a:off x="695325" y="10163175"/>
           <a:ext cx="2343150" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4167,10 +4194,120 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F542A527-5315-467E-983C-B37C7ED01B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10772775"/>
+          <a:ext cx="4714875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C138E4-16C1-4B76-8FC7-879763AC51AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="704850" y="7705725"/>
+          <a:ext cx="4619625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4491,7 +4628,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5083,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="AT31" sqref="AT31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5094,51 +5231,72 @@
     <col min="1" max="52" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5185,70 +5343,64 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5260,68 +5412,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98754295-28E5-4B38-AF1D-BD7D970C8391}">
-  <dimension ref="B2:M378"/>
+  <dimension ref="B2:L378"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
     </row>
     <row r="21" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -5331,12 +5475,12 @@
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
@@ -5346,12 +5490,12 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
@@ -5361,12 +5505,12 @@
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
@@ -5376,12 +5520,12 @@
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.15">
@@ -5391,12 +5535,12 @@
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.15">
@@ -5406,12 +5550,12 @@
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.15">
@@ -5421,12 +5565,12 @@
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.15">
@@ -5436,12 +5580,12 @@
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.15">
@@ -5451,12 +5595,12 @@
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B218" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.15">
@@ -5466,12 +5610,12 @@
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B238" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.15">
@@ -5481,12 +5625,12 @@
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B258" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.15">
@@ -5496,12 +5640,12 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B278" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.15">
@@ -5511,12 +5655,12 @@
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B298" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.15">
@@ -5526,12 +5670,12 @@
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B318" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.15">
@@ -5541,12 +5685,12 @@
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B338" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.15">
@@ -5556,12 +5700,12 @@
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B358" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.15">
@@ -5571,12 +5715,12 @@
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B360" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B378" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5588,87 +5732,87 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992D1B6-3265-4D96-9676-7DD7B363AA9F}">
-  <dimension ref="B2:B62"/>
+  <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
@@ -5678,52 +5822,52 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5746,12 +5890,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -5761,32 +5905,32 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
@@ -5801,7 +5945,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5815,7 +5959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9009D-DA20-4F56-B17E-9FDD72264508}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -5823,12 +5967,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -5838,12 +5982,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -5873,7 +6017,7 @@
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.15">
       <c r="M23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/report/No2_KJBM020_テスト結果.xlsx
+++ b/report/No2_KJBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194D074-5D36-4771-B7D0-638E0C7157C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75437C1-B7ED-4857-99DA-829474799D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>前提</t>
     <rPh sb="0" eb="2">
@@ -408,10 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■ケース2のテストデータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ITF-FILEオープンに失敗しました</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -427,6 +423,10 @@
     <rPh sb="5" eb="6">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ケース2、26～28のテストデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5223,7 +5223,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT31" sqref="AT31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
@@ -5343,7 +5343,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5414,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98754295-28E5-4B38-AF1D-BD7D970C8391}">
   <dimension ref="B2:L378"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -5734,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992D1B6-3265-4D96-9676-7DD7B363AA9F}">
   <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
@@ -5842,7 +5842,7 @@
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
@@ -5857,7 +5857,7 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
@@ -5880,10 +5880,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BD374-20B5-430F-B041-8D95F25AC7CD}">
-  <dimension ref="B2:B27"/>
+  <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5908,44 +5908,49 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M28" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5959,8 +5964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9009D-DA20-4F56-B17E-9FDD72264508}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/report/No2_KJBM020_テスト結果.xlsx
+++ b/report/No2_KJBM020_テスト結果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75437C1-B7ED-4857-99DA-829474799D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E8217C-B700-4E84-849F-2F4C2C23699B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>KJBM010 OTF=               2</t>
   </si>
   <si>
-    <t>がテスト結果3の結果と一緒に表示されればよい</t>
-  </si>
-  <si>
     <t>24.読み権限がないインプットファイルをITF環境変数に指定して./KJBM020 | iconv -fcp932で実行する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -427,6 +424,10 @@
   </si>
   <si>
     <t>■ケース2、26～28のテストデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がテスト結果22の結果と一緒に表示されればよい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5223,7 +5224,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5274,7 +5275,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
@@ -5284,7 +5285,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
@@ -5305,7 +5306,7 @@
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5414,7 +5415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98754295-28E5-4B38-AF1D-BD7D970C8391}">
   <dimension ref="B2:L378"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -5630,7 +5631,7 @@
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B258" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.15">
@@ -5640,7 +5641,7 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.15">
@@ -5734,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992D1B6-3265-4D96-9676-7DD7B363AA9F}">
   <dimension ref="B2:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5807,12 +5808,12 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
@@ -5822,27 +5823,27 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
@@ -5852,22 +5853,22 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5890,12 +5891,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -5905,32 +5906,32 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
@@ -5945,7 +5946,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
@@ -5964,7 +5965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9009D-DA20-4F56-B17E-9FDD72264508}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -5972,12 +5973,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
@@ -5987,12 +5988,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
